--- a/data/trans_orig/P25D_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7250</v>
+        <v>7065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26055</v>
+        <v>22996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02419613852276072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0125322638719904</v>
+        <v>0.01221154369562139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04503728010622574</v>
+        <v>0.0397487332812094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4924</v>
+        <v>4479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002022477751797793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0004715988458290998</v>
+        <v>0.0004681668782627447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006005073249087161</v>
+        <v>0.005462423902867304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>15657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8560</v>
+        <v>8229</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26671</v>
+        <v>25954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01119533480363775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006120843879020825</v>
+        <v>0.005883873893511833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0190710137559372</v>
+        <v>0.01855839451221829</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>564531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>552474</v>
+        <v>555533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>571279</v>
+        <v>571464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9758038614772394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9549627198937739</v>
+        <v>0.9602512667187907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9874677361280096</v>
+        <v>0.9877884563043785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1421</v>
@@ -833,19 +833,19 @@
         <v>818299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>815033</v>
+        <v>815478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>819570</v>
+        <v>819573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9979775222482024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9939949267509128</v>
+        <v>0.9945375760971329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9995284011541709</v>
+        <v>0.9995318331217373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2101</v>
@@ -854,19 +854,19 @@
         <v>1382829</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1371815</v>
+        <v>1372532</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1389926</v>
+        <v>1390257</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9888046651963622</v>
+        <v>0.988804665196362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9809289862440628</v>
+        <v>0.9814416054877815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938791561209791</v>
+        <v>0.9941161261064879</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>87811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64143</v>
+        <v>65944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115323</v>
+        <v>114105</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03950155947426322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02885452508027019</v>
+        <v>0.02966485920183458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05187762540702279</v>
+        <v>0.05132960487775349</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -979,19 +979,19 @@
         <v>53608</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40401</v>
+        <v>39511</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74416</v>
+        <v>71651</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02473837281827306</v>
+        <v>0.02473837281827307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01864372142153115</v>
+        <v>0.0182332399528194</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03434069293090995</v>
+        <v>0.0330646795325938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -1000,19 +1000,19 @@
         <v>141419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113603</v>
+        <v>113646</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174934</v>
+        <v>172993</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03221408859867809</v>
+        <v>0.03221408859867808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02587778290275489</v>
+        <v>0.02588771078921849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03984840839368645</v>
+        <v>0.03940628395681935</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2135166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2107654</v>
+        <v>2108872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2158834</v>
+        <v>2157033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9604984405257369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481223745929775</v>
+        <v>0.9486703951222466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9711454749197306</v>
+        <v>0.9703351407981654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2865</v>
@@ -1050,19 +1050,19 @@
         <v>2113392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2092584</v>
+        <v>2095349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2126599</v>
+        <v>2127489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9752616271817268</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9656593070690899</v>
+        <v>0.9669353204674062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9813562785784686</v>
+        <v>0.9817667600471803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4799</v>
@@ -1071,19 +1071,19 @@
         <v>4248558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4215043</v>
+        <v>4216984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4276374</v>
+        <v>4276331</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.967785911401322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9601515916063137</v>
+        <v>0.9605937160431809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9741222170972452</v>
+        <v>0.9741122892107817</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>17885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10148</v>
+        <v>9516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32041</v>
+        <v>31558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02520561765355219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01430231691183457</v>
+        <v>0.01341062044247994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04515703600996708</v>
+        <v>0.04447595579058439</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1196,19 +1196,19 @@
         <v>16685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10489</v>
+        <v>9575</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27268</v>
+        <v>27327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02272592699372913</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01428702091186494</v>
+        <v>0.01304217412734434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03714110246404172</v>
+        <v>0.03722194979909369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1217,19 +1217,19 @@
         <v>34569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21892</v>
+        <v>22720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49622</v>
+        <v>50892</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02394463508584069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01516339747062189</v>
+        <v>0.01573687900465823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03437072748831857</v>
+        <v>0.03525085096514292</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>691670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677514</v>
+        <v>677997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699407</v>
+        <v>700039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9747943823464478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.954842963990033</v>
+        <v>0.9555240442094157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9856976830881656</v>
+        <v>0.9865893795575201</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>984</v>
@@ -1267,19 +1267,19 @@
         <v>717483</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706900</v>
+        <v>706841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>723679</v>
+        <v>724593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9772740730062709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9628588975359581</v>
+        <v>0.9627780502009061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9857129790881352</v>
+        <v>0.9869578258726557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1651</v>
@@ -1288,19 +1288,19 @@
         <v>1409155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1394102</v>
+        <v>1392832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1421832</v>
+        <v>1421004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9760553649141593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9656292725116813</v>
+        <v>0.964749149034857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9848366025293781</v>
+        <v>0.9842631209953415</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>119694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91273</v>
+        <v>93286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151943</v>
+        <v>155026</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0340905469058809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02599586170579936</v>
+        <v>0.02656904518870902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04327548358517311</v>
+        <v>0.04415347394936858</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1413,19 +1413,19 @@
         <v>71951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55941</v>
+        <v>54772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93175</v>
+        <v>93946</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01933583286414496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01503323684105686</v>
+        <v>0.01471922967277597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02503941447385314</v>
+        <v>0.0252467846151182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1434,19 +1434,19 @@
         <v>191645</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159292</v>
+        <v>157880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228560</v>
+        <v>228787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02649890927064043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02202537452028196</v>
+        <v>0.0218301612972387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03160322183572718</v>
+        <v>0.03163455687461481</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3391367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3359118</v>
+        <v>3356035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3419788</v>
+        <v>3417775</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9659094530941192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9567245164148268</v>
+        <v>0.9558465260506314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9740041382942007</v>
+        <v>0.973430954811291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5270</v>
@@ -1484,19 +1484,19 @@
         <v>3649174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3627950</v>
+        <v>3627179</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3665184</v>
+        <v>3666353</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.980664167135855</v>
+        <v>0.9806641671358551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9749605855261473</v>
+        <v>0.9747532153848818</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9849667631589432</v>
+        <v>0.9852807703272242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8551</v>
@@ -1505,19 +1505,19 @@
         <v>7040542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7003627</v>
+        <v>7003400</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7072895</v>
+        <v>7074307</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9735010907293594</v>
+        <v>0.9735010907293595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9683967781642729</v>
+        <v>0.9683654431253851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9779746254797179</v>
+        <v>0.9781698387027612</v>
       </c>
     </row>
     <row r="15">
